--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2116,9 +2116,6 @@
     <t>Set Window to Wall Ratio by Facade East</t>
   </si>
   <si>
-    <t>Ngrid Model0</t>
-  </si>
-  <si>
     <t>single_run</t>
   </si>
   <si>
@@ -2492,6 +2489,9 @@
   </si>
   <si>
     <t>cooling_cop</t>
+  </si>
+  <si>
+    <t>NationalGrid Model0</t>
   </si>
 </sst>
 </file>
@@ -6609,8 +6609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6750,7 +6750,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>691</v>
+        <v>816</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6761,10 +6761,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6772,10 +6772,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6840,7 +6840,7 @@
         <v>451</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1">
@@ -6929,7 +6929,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -6942,7 +6942,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -6970,7 +6970,7 @@
         <v>678</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>621</v>
@@ -6984,7 +6984,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -6993,13 +6993,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7032,8 +7032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -7192,13 +7192,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>761</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>762</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>763</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7211,16 +7211,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>799</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>800</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>801</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7228,16 +7228,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7273,7 +7273,7 @@
         <v>619</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7366,13 +7366,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7394,7 +7394,7 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H14" s="30">
         <v>10000</v>
@@ -7448,7 +7448,7 @@
         <v>64</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H17" s="30">
         <v>10</v>
@@ -7459,10 +7459,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>770</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>771</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7477,10 +7477,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>772</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>773</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7495,10 +7495,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>773</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>774</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>775</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7513,10 +7513,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>776</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>777</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7531,10 +7531,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>778</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>779</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7549,10 +7549,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>780</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>781</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7567,10 +7567,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>782</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>783</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7585,10 +7585,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>784</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>785</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7603,10 +7603,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>785</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>786</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>787</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7621,10 +7621,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>788</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>789</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7639,10 +7639,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>790</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>791</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7657,10 +7657,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>791</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>792</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>793</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7675,10 +7675,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>793</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>794</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>795</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7728,13 +7728,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>806</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>807</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>808</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7745,10 +7745,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>808</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>809</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>810</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7762,19 +7762,19 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>810</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>811</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>812</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="I35" s="30" t="s">
         <v>813</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="30" customFormat="1">
@@ -7782,10 +7782,10 @@
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
+        <v>814</v>
+      </c>
+      <c r="E36" s="30" t="s">
         <v>815</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>816</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -8199,13 +8199,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D53" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E53" s="38" t="s">
         <v>68</v>
@@ -8218,16 +8218,16 @@
         <v>21</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F54" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I54" s="31"/>
     </row>
@@ -8236,16 +8236,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8254,16 +8254,16 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H56" s="41" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8272,16 +8272,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8290,13 +8290,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>233</v>
@@ -9210,14 +9210,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -9238,14 +9238,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>717</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>718</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -9266,14 +9266,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -9294,14 +9294,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -9322,14 +9322,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -9350,14 +9350,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -9378,14 +9378,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -9406,14 +9406,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -9434,14 +9434,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -9462,14 +9462,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -9490,14 +9490,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -9518,14 +9518,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -9546,14 +9546,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -9574,14 +9574,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -9602,14 +9602,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>744</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>745</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -9630,14 +9630,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -9658,14 +9658,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -9686,14 +9686,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -9714,14 +9714,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -9742,14 +9742,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -9770,14 +9770,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -9798,14 +9798,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -9826,14 +9826,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>64</v>

--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16840" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2179,9 +2179,6 @@
     <t>../weather/*</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>Total Electricity Consumption Modeled</t>
   </si>
   <si>
@@ -2191,18 +2188,12 @@
     <t>Total Electricity Peak Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_peak_demand_modeled</t>
-  </si>
-  <si>
     <t>kW</t>
   </si>
   <si>
     <t>Electricity Consumption Period 1 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_period_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>Electricity Consumption Period 2 Modeled</t>
   </si>
   <si>
@@ -2233,48 +2224,12 @@
     <t>Electricity Consumption Period 11 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_1_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_1_period_11_consumption_modeled</t>
-  </si>
-  <si>
     <t>Gas Consumption Period 1 Modeled</t>
   </si>
   <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_1_consumption_modeled</t>
-  </si>
-  <si>
     <t>therms</t>
   </si>
   <si>
@@ -2302,30 +2257,6 @@
     <t>Gas Consumption Period 9 Modeled</t>
   </si>
   <si>
-    <t>calibration_reports.utility_bill_2_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.utility_bill_2_period_9_consumption_modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2452,15 +2383,9 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>../measures</t>
-  </si>
-  <si>
     <t>../../tmp/calibration_data</t>
   </si>
   <si>
-    <t>../../analysis</t>
-  </si>
-  <si>
     <t>Add Ptac</t>
   </si>
   <si>
@@ -2492,6 +2417,81 @@
   </si>
   <si>
     <t>NationalGrid Model0</t>
+  </si>
+  <si>
+    <t>../Cofee-measures</t>
+  </si>
+  <si>
+    <t>../analysis</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_peak_demand_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_10_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_1_period_11_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_1_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_2_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_3_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_4_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_5_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_6_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_7_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_8_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
   </si>
 </sst>
 </file>
@@ -6579,17 +6579,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6609,21 +6609,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6632,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1">
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1">
+    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6745,40 +6745,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6843,11 +6843,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1">
+    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6864,72 +6864,72 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="C25" s="34"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="31"/>
       <c r="C26" s="34"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1">
+    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="26"/>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1">
+    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="26"/>
       <c r="C28" s="34"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1">
+    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="26"/>
       <c r="C29" s="34"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1">
+    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1">
+    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1">
+    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1">
+    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1">
+    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -6937,7 +6937,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -6956,13 +6956,13 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1">
+    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -6984,14 +6984,14 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>706</v>
       </c>
@@ -6999,10 +6999,10 @@
         <v>705</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7037,32 +7037,32 @@
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="31"/>
+    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.44140625" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="24" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7097,7 +7097,7 @@
       <c r="X1" s="43"/>
       <c r="Y1" s="43"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7187,18 +7187,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
+    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7206,41 +7206,41 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1">
+    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="30" customFormat="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7259,7 +7259,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>619</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7284,7 +7284,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7361,18 +7361,18 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
+    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7380,7 +7380,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7394,13 +7394,13 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="H14" s="30">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1">
+    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1">
+    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1">
+    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7448,21 +7448,21 @@
         <v>64</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="H17" s="30">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1">
+    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7472,15 +7472,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1">
+    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7490,15 +7490,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1">
+    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7508,15 +7508,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1">
+    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7526,15 +7526,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1">
+    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7544,15 +7544,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1">
+    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7562,15 +7562,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1">
+    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7580,15 +7580,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1">
+    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7598,15 +7598,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1">
+    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7616,15 +7616,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1">
+    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7634,15 +7634,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1">
+    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7652,15 +7652,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1">
+    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7670,15 +7670,15 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1">
+    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7688,7 +7688,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
+    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7723,32 +7723,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
+    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1">
+    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7757,35 +7757,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1">
+    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -7794,7 +7794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1">
+    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -7813,7 +7813,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1">
+    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1">
+    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1">
+    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1">
+    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1">
+    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8304,667 +8304,667 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="8:9">
+    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="8:9">
+    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="8:9">
+    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="8:9">
+    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="8:9">
+    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="8:9">
+    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="8:9">
+    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="8:9">
+    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="8:9">
+    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="8:9">
+    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="8:9">
+    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="8:9">
+    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="8:9">
+    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="8:9">
+    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="8:9">
+    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="8:9">
+    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="8:9">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="8:9">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="8:9">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="8:9">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="8:9">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="8:9">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="8:9">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="8:9">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="8:9">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="8:9">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="8:9">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="8:9">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="8:9">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="8:9">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="8:9">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="8:9">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9">
+    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -8987,25 +8987,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A4:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="11" max="16384" width="11.44140625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9020,7 +9020,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>630</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>646</v>
       </c>
@@ -9120,7 +9120,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>647</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>648</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>649</v>
       </c>
@@ -9208,16 +9208,16 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -9236,16 +9236,16 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>716</v>
+        <v>795</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -9264,16 +9264,16 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>719</v>
+        <v>796</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -9292,16 +9292,16 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>730</v>
+        <v>797</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -9320,16 +9320,16 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>731</v>
+        <v>798</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -9348,16 +9348,16 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>732</v>
+        <v>799</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -9376,16 +9376,16 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>733</v>
+        <v>800</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -9404,16 +9404,16 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>734</v>
+        <v>801</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -9432,16 +9432,16 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>735</v>
+        <v>802</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -9460,16 +9460,16 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>736</v>
+        <v>803</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -9488,16 +9488,16 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>737</v>
+        <v>804</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -9516,16 +9516,16 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>738</v>
+        <v>805</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -9544,16 +9544,16 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>739</v>
+        <v>806</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -9572,16 +9572,16 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>742</v>
+        <v>807</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -9600,16 +9600,16 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>743</v>
+        <v>808</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -9628,16 +9628,16 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>753</v>
+        <v>809</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -9656,16 +9656,16 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>754</v>
+        <v>810</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -9684,16 +9684,16 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>755</v>
+        <v>811</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -9712,16 +9712,16 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>756</v>
+        <v>812</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -9740,16 +9740,16 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>757</v>
+        <v>813</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -9768,16 +9768,16 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>758</v>
+        <v>814</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -9796,16 +9796,16 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>759</v>
+        <v>815</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -9824,16 +9824,16 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>760</v>
+        <v>816</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>64</v>
@@ -9852,49 +9852,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9919,19 +9919,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -9971,7 +9971,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10195,7 +10195,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10310,7 +10310,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10624,7 +10624,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10645,7 +10645,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10869,7 +10869,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -10938,7 +10938,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11093,7 +11093,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11296,7 +11296,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11317,7 +11317,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11342,7 +11342,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11545,7 +11545,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11566,7 +11566,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11614,7 +11614,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12112,7 +12112,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12137,7 +12137,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12177,7 +12177,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12202,7 +12202,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12221,7 +12221,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12269,7 +12269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12313,7 +12313,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12332,7 +12332,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12357,7 +12357,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12784,7 +12784,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -12987,7 +12987,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13012,7 +13012,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13033,7 +13033,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13328,7 +13328,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13460,7 +13460,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13686,7 +13686,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13711,7 +13711,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13872,7 +13872,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14159,7 +14159,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14180,7 +14180,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14203,7 +14203,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14270,7 +14270,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14291,7 +14291,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14316,7 +14316,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14341,7 +14341,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14360,7 +14360,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14385,7 +14385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14588,7 +14588,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14613,7 +14613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14816,7 +14816,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14837,7 +14837,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15182,7 +15182,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15201,7 +15201,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15222,7 +15222,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15586,7 +15586,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15611,7 +15611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15703,7 +15703,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15722,7 +15722,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15747,7 +15747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15789,7 +15789,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15808,7 +15808,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15827,7 +15827,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15848,7 +15848,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16032,7 +16032,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16164,7 +16164,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16371,7 +16371,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -16413,7 +16413,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16455,7 +16455,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16476,7 +16476,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16495,7 +16495,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16516,7 +16516,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16535,7 +16535,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16556,7 +16556,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16575,7 +16575,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16617,7 +16617,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16845,7 +16845,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16868,7 +16868,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -16956,7 +16956,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17027,7 +17027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17046,7 +17046,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17071,7 +17071,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17113,7 +17113,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17134,7 +17134,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17155,7 +17155,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17197,7 +17197,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17216,7 +17216,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17241,7 +17241,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17266,7 +17266,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -17569,7 +17569,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -17598,7 +17598,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -17637,7 +17637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -17935,7 +17935,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -17961,7 +17961,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18002,7 +18002,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18089,17 +18089,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1">
+    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1">
+    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1">
+    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1">
+    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1">
+    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1">
+    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1">
+    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1">
+    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18261,8 +18261,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1"/>
-    <row r="16" spans="1:21">
+    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>684</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2383,9 +2383,6 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>../../tmp/calibration_data</t>
-  </si>
-  <si>
     <t>Add Ptac</t>
   </si>
   <si>
@@ -2492,6 +2489,9 @@
   </si>
   <si>
     <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
+  </si>
+  <si>
+    <t>../lib/calibration_data</t>
   </si>
 </sst>
 </file>
@@ -6579,17 +6579,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6609,21 +6609,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6632,7 +6632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6641,7 +6641,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6745,40 +6745,40 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6843,11 +6843,11 @@
         <v>691</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6864,67 +6864,67 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="31"/>
       <c r="C24" s="34"/>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="31"/>
       <c r="C25" s="34"/>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="31"/>
       <c r="C26" s="34"/>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="B27" s="26"/>
       <c r="C27" s="34"/>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="B28" s="26"/>
       <c r="C28" s="34"/>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="B29" s="26"/>
       <c r="C29" s="34"/>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="B30" s="26"/>
       <c r="C30" s="34"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
       <c r="C31" s="34"/>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
       <c r="C32" s="34"/>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
         <v>706</v>
       </c>
@@ -6999,10 +6999,10 @@
         <v>705</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="31" customFormat="1">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7037,32 +7037,32 @@
       <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
     <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
     <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7097,7 +7097,7 @@
       <c r="X1" s="43"/>
       <c r="Y1" s="43"/>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7206,7 +7206,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7259,7 +7259,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7380,7 +7380,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="30" customFormat="1">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="30" customFormat="1">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="30" customFormat="1">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="30" customFormat="1">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="30" customFormat="1">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="30" customFormat="1">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="30" customFormat="1">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="30" customFormat="1">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="30" customFormat="1">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="30" customFormat="1">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="30" customFormat="1">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="30" customFormat="1">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="30" customFormat="1">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="30" customFormat="1">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="30" customFormat="1">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="30" customFormat="1">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="38" customFormat="1">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7707,7 +7707,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7723,32 +7723,32 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>780</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>781</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>782</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="30" customFormat="1">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>783</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>784</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7757,35 +7757,35 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="30" customFormat="1">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>785</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>786</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H35" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="I35" s="30" t="s">
         <v>787</v>
       </c>
-      <c r="I35" s="30" t="s">
+    </row>
+    <row r="36" spans="1:17" s="30" customFormat="1">
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="30" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
+      <c r="E36" s="30" t="s">
         <v>789</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>790</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>64</v>
@@ -7794,7 +7794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="38" customFormat="1">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -7813,7 +7813,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -7866,7 +7866,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="38" customFormat="1">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -7913,7 +7913,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -7938,7 +7938,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -7966,7 +7966,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -7994,7 +7994,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" s="38" customFormat="1">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8013,7 +8013,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8066,7 +8066,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8094,7 +8094,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="38" customFormat="1">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8113,7 +8113,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8138,7 +8138,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8166,7 +8166,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8194,7 +8194,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="38" customFormat="1">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" s="38" customFormat="1">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8304,667 +8304,667 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="H59" s="31"/>
       <c r="I59" s="31"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="H60" s="31"/>
       <c r="I60" s="31"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="H61" s="31"/>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="H62" s="31"/>
       <c r="I62" s="31"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="H63" s="31"/>
       <c r="I63" s="31"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="H64" s="31"/>
       <c r="I64" s="31"/>
     </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:9">
       <c r="H65" s="31"/>
       <c r="I65" s="31"/>
     </row>
-    <row r="66" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:9">
       <c r="H66" s="31"/>
       <c r="I66" s="31"/>
     </row>
-    <row r="67" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:9">
       <c r="H67" s="31"/>
       <c r="I67" s="31"/>
     </row>
-    <row r="68" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:9">
       <c r="H68" s="31"/>
       <c r="I68" s="31"/>
     </row>
-    <row r="69" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:9">
       <c r="H69" s="31"/>
       <c r="I69" s="31"/>
     </row>
-    <row r="70" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:9">
       <c r="H70" s="31"/>
       <c r="I70" s="31"/>
     </row>
-    <row r="71" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:9">
       <c r="H71" s="31"/>
       <c r="I71" s="31"/>
     </row>
-    <row r="72" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:9">
       <c r="H72" s="31"/>
       <c r="I72" s="31"/>
     </row>
-    <row r="73" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:9">
       <c r="H73" s="31"/>
       <c r="I73" s="31"/>
     </row>
-    <row r="74" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:9">
       <c r="H74" s="31"/>
       <c r="I74" s="31"/>
     </row>
-    <row r="75" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:9">
       <c r="H75" s="31"/>
       <c r="I75" s="31"/>
     </row>
-    <row r="76" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:9">
       <c r="H76" s="31"/>
       <c r="I76" s="31"/>
     </row>
-    <row r="77" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:9">
       <c r="H77" s="31"/>
       <c r="I77" s="31"/>
     </row>
-    <row r="78" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:9">
       <c r="H78" s="31"/>
       <c r="I78" s="31"/>
     </row>
-    <row r="79" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:9">
       <c r="H79" s="31"/>
       <c r="I79" s="31"/>
     </row>
-    <row r="80" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:9">
       <c r="H80" s="31"/>
       <c r="I80" s="31"/>
     </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:9">
       <c r="H81" s="31"/>
       <c r="I81" s="31"/>
     </row>
-    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:9">
       <c r="H82" s="31"/>
       <c r="I82" s="31"/>
     </row>
-    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:9">
       <c r="H83" s="31"/>
       <c r="I83" s="31"/>
     </row>
-    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:9">
       <c r="H84" s="31"/>
       <c r="I84" s="31"/>
     </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:9">
       <c r="H85" s="31"/>
       <c r="I85" s="31"/>
     </row>
-    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:9">
       <c r="H86" s="31"/>
       <c r="I86" s="31"/>
     </row>
-    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:9">
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
     </row>
-    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:9">
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
     </row>
-    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:9">
       <c r="H89" s="31"/>
       <c r="I89" s="31"/>
     </row>
-    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:9">
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
     </row>
-    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:9">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:9">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:9">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:9">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:9">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:9">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:9">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:9">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:9">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:9">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:9">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:9">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:9">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:9">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:9">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:9">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:9">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:9">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:9">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:9">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:9">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:9">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="8:9">
       <c r="H224" s="31"/>
       <c r="I224" s="31"/>
     </row>
@@ -8987,25 +8987,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A4:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
     <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9020,7 +9020,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9055,7 +9055,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="A3" s="14" t="s">
         <v>630</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="30" t="s">
         <v>646</v>
       </c>
@@ -9120,7 +9120,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="30" t="s">
         <v>647</v>
       </c>
@@ -9150,7 +9150,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="30" t="s">
         <v>648</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="30" t="s">
         <v>649</v>
       </c>
@@ -9208,13 +9208,13 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
         <v>712</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>713</v>
@@ -9236,13 +9236,13 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
         <v>714</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>715</v>
@@ -9264,13 +9264,13 @@
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
         <v>716</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>713</v>
@@ -9292,13 +9292,13 @@
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
         <v>717</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>713</v>
@@ -9320,13 +9320,13 @@
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
         <v>718</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>713</v>
@@ -9348,13 +9348,13 @@
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
         <v>719</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>713</v>
@@ -9376,13 +9376,13 @@
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
         <v>720</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>713</v>
@@ -9404,13 +9404,13 @@
       <c r="K14" s="30"/>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
         <v>721</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>713</v>
@@ -9432,13 +9432,13 @@
       <c r="K15" s="30"/>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
         <v>722</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>713</v>
@@ -9460,13 +9460,13 @@
       <c r="K16" s="30"/>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
         <v>723</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>713</v>
@@ -9488,13 +9488,13 @@
       <c r="K17" s="30"/>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
         <v>724</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>713</v>
@@ -9516,13 +9516,13 @@
       <c r="K18" s="30"/>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
         <v>725</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>713</v>
@@ -9544,13 +9544,13 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
         <v>726</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>713</v>
@@ -9572,13 +9572,13 @@
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
         <v>728</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>729</v>
@@ -9600,13 +9600,13 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
         <v>727</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>729</v>
@@ -9628,13 +9628,13 @@
       <c r="K22" s="30"/>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
         <v>730</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>729</v>
@@ -9656,13 +9656,13 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
         <v>731</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>729</v>
@@ -9684,13 +9684,13 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
         <v>732</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>729</v>
@@ -9712,13 +9712,13 @@
       <c r="K25" s="30"/>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
         <v>733</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>729</v>
@@ -9740,13 +9740,13 @@
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
         <v>734</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>729</v>
@@ -9768,13 +9768,13 @@
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
         <v>735</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>729</v>
@@ -9796,13 +9796,13 @@
       <c r="K28" s="30"/>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
         <v>736</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>729</v>
@@ -9824,13 +9824,13 @@
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
         <v>737</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>729</v>
@@ -9852,49 +9852,49 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -9919,19 +9919,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -9950,7 +9950,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -9971,7 +9971,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10040,7 +10040,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10086,7 +10086,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10155,7 +10155,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10174,7 +10174,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10195,7 +10195,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10310,7 +10310,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10379,7 +10379,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -10398,7 +10398,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10490,7 +10490,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10513,7 +10513,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10559,7 +10559,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10582,7 +10582,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10624,7 +10624,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10645,7 +10645,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10668,7 +10668,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10783,7 +10783,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10829,7 +10829,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10848,7 +10848,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10869,7 +10869,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10892,7 +10892,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -10915,7 +10915,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -10938,7 +10938,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -10984,7 +10984,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11007,7 +11007,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11030,7 +11030,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11093,7 +11093,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11116,7 +11116,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11139,7 +11139,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11162,7 +11162,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11296,7 +11296,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11317,7 +11317,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11342,7 +11342,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11365,7 +11365,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11388,7 +11388,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -11411,7 +11411,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11480,7 +11480,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11503,7 +11503,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11526,7 +11526,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11545,7 +11545,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11566,7 +11566,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11589,7 +11589,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11614,7 +11614,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11660,7 +11660,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11683,7 +11683,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11706,7 +11706,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11775,7 +11775,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11798,7 +11798,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -11932,7 +11932,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -11978,7 +11978,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12070,7 +12070,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12112,7 +12112,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12137,7 +12137,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12156,7 +12156,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12177,7 +12177,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12202,7 +12202,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12221,7 +12221,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12269,7 +12269,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12292,7 +12292,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12313,7 +12313,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12332,7 +12332,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12357,7 +12357,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12380,7 +12380,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -12449,7 +12449,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12472,7 +12472,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12495,7 +12495,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12560,7 +12560,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12583,7 +12583,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12602,7 +12602,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12671,7 +12671,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12694,7 +12694,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12759,7 +12759,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12784,7 +12784,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12807,7 +12807,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12830,7 +12830,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12853,7 +12853,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -12922,7 +12922,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -12945,7 +12945,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -12987,7 +12987,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13012,7 +13012,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13033,7 +13033,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13102,7 +13102,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13148,7 +13148,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13217,7 +13217,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13240,7 +13240,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13263,7 +13263,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13286,7 +13286,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13309,7 +13309,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13328,7 +13328,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -13416,7 +13416,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -13435,7 +13435,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13460,7 +13460,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13506,7 +13506,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13598,7 +13598,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13644,7 +13644,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13686,7 +13686,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13711,7 +13711,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13757,7 +13757,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13780,7 +13780,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13826,7 +13826,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13849,7 +13849,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13872,7 +13872,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13895,7 +13895,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -13918,7 +13918,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -13937,7 +13937,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -13983,7 +13983,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14006,7 +14006,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14048,7 +14048,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14071,7 +14071,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14094,7 +14094,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14140,7 +14140,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14159,7 +14159,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14180,7 +14180,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14203,7 +14203,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14270,7 +14270,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14291,7 +14291,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14316,7 +14316,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14341,7 +14341,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14360,7 +14360,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14385,7 +14385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -14431,7 +14431,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14454,7 +14454,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14477,7 +14477,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14546,7 +14546,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14588,7 +14588,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14613,7 +14613,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14659,7 +14659,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14728,7 +14728,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14751,7 +14751,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14774,7 +14774,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14797,7 +14797,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14816,7 +14816,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14837,7 +14837,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14860,7 +14860,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14883,7 +14883,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -14929,7 +14929,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -14952,7 +14952,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -14975,7 +14975,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15021,7 +15021,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15067,7 +15067,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15090,7 +15090,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15136,7 +15136,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15182,7 +15182,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15201,7 +15201,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15222,7 +15222,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15245,7 +15245,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15268,7 +15268,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15291,7 +15291,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15360,7 +15360,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15383,7 +15383,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15521,7 +15521,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15544,7 +15544,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15567,7 +15567,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15586,7 +15586,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15611,7 +15611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15634,7 +15634,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15703,7 +15703,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15722,7 +15722,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15747,7 +15747,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15789,7 +15789,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15808,7 +15808,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15827,7 +15827,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15848,7 +15848,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15871,7 +15871,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -15940,7 +15940,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -15986,7 +15986,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16009,7 +16009,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16032,7 +16032,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16055,7 +16055,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16078,7 +16078,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16097,7 +16097,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16120,7 +16120,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16139,7 +16139,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16164,7 +16164,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16233,7 +16233,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16279,7 +16279,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16302,7 +16302,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16348,7 +16348,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16371,7 +16371,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -16394,7 +16394,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -16413,7 +16413,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -16436,7 +16436,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16455,7 +16455,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16476,7 +16476,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16495,7 +16495,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16516,7 +16516,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16535,7 +16535,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16556,7 +16556,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16575,7 +16575,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16617,7 +16617,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16642,7 +16642,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16711,7 +16711,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16734,7 +16734,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16780,7 +16780,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16826,7 +16826,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16845,7 +16845,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16868,7 +16868,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -16937,7 +16937,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -16956,7 +16956,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17027,7 +17027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17046,7 +17046,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17071,7 +17071,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17094,7 +17094,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17113,7 +17113,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17134,7 +17134,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17155,7 +17155,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17178,7 +17178,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17197,7 +17197,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17216,7 +17216,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17241,7 +17241,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17266,7 +17266,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17303,7 +17303,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -17323,7 +17323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -17343,7 +17343,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -17403,7 +17403,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -17426,7 +17426,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -17463,7 +17463,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -17569,7 +17569,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -17598,7 +17598,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -17637,7 +17637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -17651,7 +17651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -17671,7 +17671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -17685,7 +17685,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -17745,7 +17745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -17825,7 +17825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -17845,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -17935,7 +17935,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -17961,7 +17961,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18002,7 +18002,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18050,7 +18050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18089,17 +18089,17 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18110,7 +18110,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18166,7 +18166,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18261,8 +18261,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1"/>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -18402,7 +18402,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -18515,7 +18515,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>684</v>
       </c>
@@ -18538,7 +18538,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -18557,7 +18557,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13180" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2385" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="816">
   <si>
     <t>type</t>
   </si>
@@ -2383,30 +2383,12 @@
     <t>Files to include (relative to this spreadsheet or absolute path). If a directory then it will include all subfolders and files</t>
   </si>
   <si>
-    <t>Add Ptac</t>
-  </si>
-  <si>
-    <t>AddPTAC</t>
-  </si>
-  <si>
     <t>Heating Efficiency</t>
   </si>
   <si>
     <t>heating_efficiency</t>
   </si>
   <si>
-    <t>Heating Fuel Type</t>
-  </si>
-  <si>
-    <t>heating_fuel_type</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>|Gas,Electric|</t>
-  </si>
-  <si>
     <t>Cooling COP</t>
   </si>
   <si>
@@ -2492,6 +2474,21 @@
   </si>
   <si>
     <t>../lib/calibration_data</t>
+  </si>
+  <si>
+    <t>Add Sys 3 - PSZ-AC Ngrid</t>
+  </si>
+  <si>
+    <t>AddSys3PSZACNgrid</t>
+  </si>
+  <si>
+    <t>Rotate Building</t>
+  </si>
+  <si>
+    <t>Number of Degrees to Rotate Building positive value is clockwise</t>
+  </si>
+  <si>
+    <t>degrees</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2623,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1778">
+  <cellStyleXfs count="1786">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4377,6 +4374,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4496,7 +4501,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1778">
+  <cellStyles count="1786">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5386,6 +5391,10 @@
     <cellStyle name="Followed Hyperlink" xfId="1773" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1775" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1777" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1779" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6274,6 +6283,10 @@
     <cellStyle name="Hyperlink" xfId="1772" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1774" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1776" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1778" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6609,8 +6622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6750,7 +6763,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6761,7 +6774,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>775</v>
@@ -6772,7 +6785,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>775</v>
@@ -6999,7 +7012,7 @@
         <v>705</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7032,9 +7045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y224"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7397,7 +7410,7 @@
         <v>772</v>
       </c>
       <c r="H14" s="30">
-        <v>10000</v>
+        <v>12717</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="30" customFormat="1">
@@ -7431,7 +7444,7 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="30" customFormat="1">
@@ -7468,8 +7481,7 @@
         <v>64</v>
       </c>
       <c r="H18" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="30" customFormat="1">
@@ -7486,8 +7498,7 @@
         <v>64</v>
       </c>
       <c r="H19" s="42">
-        <f>1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="30" customFormat="1">
@@ -7504,8 +7515,7 @@
         <v>64</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" ref="H20:H30" si="0">1/13</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="30" customFormat="1">
@@ -7522,8 +7532,7 @@
         <v>64</v>
       </c>
       <c r="H21" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="30" customFormat="1">
@@ -7540,8 +7549,7 @@
         <v>64</v>
       </c>
       <c r="H22" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="30" customFormat="1">
@@ -7558,8 +7566,7 @@
         <v>64</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="30" customFormat="1">
@@ -7576,8 +7583,7 @@
         <v>64</v>
       </c>
       <c r="H24" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="30" customFormat="1">
@@ -7594,8 +7600,7 @@
         <v>64</v>
       </c>
       <c r="H25" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="30" customFormat="1">
@@ -7612,8 +7617,7 @@
         <v>64</v>
       </c>
       <c r="H26" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="30" customFormat="1">
@@ -7630,8 +7634,7 @@
         <v>64</v>
       </c>
       <c r="H27" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="30" customFormat="1">
@@ -7648,8 +7651,7 @@
         <v>64</v>
       </c>
       <c r="H28" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="30" customFormat="1">
@@ -7666,8 +7668,7 @@
         <v>64</v>
       </c>
       <c r="H29" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="30" customFormat="1">
@@ -7684,8 +7685,7 @@
         <v>64</v>
       </c>
       <c r="H30" s="42">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076927E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="38" customFormat="1">
@@ -7728,13 +7728,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7745,10 +7745,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7762,100 +7762,92 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="30" customFormat="1">
-      <c r="B36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>788</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F36" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H35" s="30">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1">
-      <c r="A37" s="38" t="b">
+    <row r="36" spans="1:17" s="38" customFormat="1">
+      <c r="A36" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B36" s="38" t="s">
+        <v>813</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="B37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>814</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>815</v>
+      </c>
+      <c r="H37" s="31">
+        <v>10</v>
+      </c>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:17" s="38" customFormat="1">
+      <c r="A38" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B38" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="C37" s="38" t="s">
+      <c r="C38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D38" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="38" t="s">
+      <c r="E38" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="B38" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="31" t="s">
-        <v>685</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="H38" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="2"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F39" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="G39" s="31" t="s">
-        <v>670</v>
-      </c>
       <c r="H39" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -7871,19 +7863,19 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="H40" s="31" t="s">
-        <v>671</v>
+      <c r="H40" s="31">
+        <v>30</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -7894,68 +7886,66 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1">
-      <c r="A41" s="38" t="b">
+    <row r="41" spans="1:17">
+      <c r="B41" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>674</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:17" s="38" customFormat="1">
+      <c r="A42" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B42" s="38" t="s">
         <v>689</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C42" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D42" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="38" t="s">
+      <c r="E42" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="B42" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="31" t="s">
-        <v>686</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="H42" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="2"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>669</v>
+        <v>686</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="G43" s="31" t="s">
-        <v>670</v>
-      </c>
       <c r="H43" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -7971,19 +7961,19 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" s="31" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="H44" s="31" t="s">
-        <v>82</v>
+      <c r="H44" s="31">
+        <v>30</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -7994,68 +7984,66 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1">
-      <c r="A45" s="38" t="b">
+    <row r="45" spans="1:17">
+      <c r="B45" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:17" s="38" customFormat="1">
+      <c r="A46" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B46" s="38" t="s">
         <v>690</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D46" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E46" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="B46" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="H46" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="2"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="G47" s="31" t="s">
-        <v>670</v>
-      </c>
       <c r="H47" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -8071,19 +8059,19 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="H48" s="31" t="s">
-        <v>672</v>
+      <c r="H48" s="31">
+        <v>30</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -8094,68 +8082,66 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1">
-      <c r="A49" s="38" t="b">
+    <row r="49" spans="1:17">
+      <c r="B49" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>672</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" s="38" customFormat="1">
+      <c r="A50" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B50" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D50" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E50" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="B50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>620</v>
-      </c>
-      <c r="H50" s="31">
-        <v>0.4</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="2"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F51" s="31" t="s">
         <v>620</v>
       </c>
-      <c r="G51" s="31" t="s">
-        <v>670</v>
-      </c>
       <c r="H51" s="31">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -8171,19 +8157,19 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>670</v>
       </c>
-      <c r="H52" s="31" t="s">
-        <v>673</v>
+      <c r="H52" s="31">
+        <v>30</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -8194,58 +8180,66 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1">
-      <c r="A53" s="38" t="b">
+    <row r="53" spans="1:17">
+      <c r="B53" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>677</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="H53" s="31" t="s">
+        <v>673</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:17" s="38" customFormat="1">
+      <c r="A54" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B54" s="38" t="s">
         <v>694</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C54" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D54" s="38" t="s">
         <v>693</v>
       </c>
-      <c r="E53" s="38" t="s">
+      <c r="E54" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>696</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>619</v>
-      </c>
-      <c r="H54" s="31" t="s">
-        <v>707</v>
-      </c>
-      <c r="I54" s="31"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8254,16 +8248,16 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>619</v>
       </c>
-      <c r="H56" s="41" t="s">
-        <v>704</v>
+      <c r="H56" s="31" t="s">
+        <v>708</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8272,41 +8266,55 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H57" s="41" t="s">
+        <v>704</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>702</v>
+      </c>
+      <c r="E58" s="31" t="s">
+        <v>700</v>
+      </c>
+      <c r="F58" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H58" s="41" t="s">
         <v>703</v>
       </c>
-      <c r="I57" s="31"/>
-    </row>
-    <row r="58" spans="1:17" s="38" customFormat="1">
-      <c r="A58" s="38" t="b">
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:17" s="38" customFormat="1">
+      <c r="A59" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B59" s="38" t="s">
         <v>710</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C59" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="D58" s="38" t="s">
+      <c r="D59" s="38" t="s">
         <v>709</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E59" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:17">
       <c r="H60" s="31"/>
@@ -9214,7 +9222,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>713</v>
@@ -9242,7 +9250,7 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>715</v>
@@ -9270,7 +9278,7 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>713</v>
@@ -9298,7 +9306,7 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>713</v>
@@ -9326,7 +9334,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>713</v>
@@ -9354,7 +9362,7 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>713</v>
@@ -9382,7 +9390,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>713</v>
@@ -9410,7 +9418,7 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>713</v>
@@ -9438,7 +9446,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>713</v>
@@ -9466,7 +9474,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>713</v>
@@ -9494,7 +9502,7 @@
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>713</v>
@@ -9522,7 +9530,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>713</v>
@@ -9550,7 +9558,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>713</v>
@@ -9578,7 +9586,7 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>729</v>
@@ -9606,7 +9614,7 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>729</v>
@@ -9634,7 +9642,7 @@
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>729</v>
@@ -9662,7 +9670,7 @@
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>729</v>
@@ -9690,7 +9698,7 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>729</v>
@@ -9718,7 +9726,7 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>729</v>
@@ -9746,7 +9754,7 @@
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>729</v>
@@ -9774,7 +9782,7 @@
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>729</v>
@@ -9802,7 +9810,7 @@
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>729</v>
@@ -9830,7 +9838,7 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>729</v>

--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20440" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22840" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2020,9 +2020,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2489,6 +2486,9 @@
   </si>
   <si>
     <t>degrees</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2557,8 +2557,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2613,6 +2618,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2623,7 +2634,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1786">
+  <cellStyleXfs count="1792">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4410,8 +4421,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4497,11 +4514,13 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1749" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1786">
+  <cellStyles count="1792">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5395,6 +5414,9 @@
     <cellStyle name="Followed Hyperlink" xfId="1781" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1783" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1785" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1787" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1789" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1791" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6287,6 +6309,9 @@
     <cellStyle name="Hyperlink" xfId="1780" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1782" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1784" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1786" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1788" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1790" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6670,7 +6695,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6763,7 +6788,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6774,10 +6799,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6785,10 +6810,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6853,7 +6878,7 @@
         <v>451</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="31" customFormat="1">
@@ -6942,7 +6967,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -6955,7 +6980,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
@@ -6969,7 +6994,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -6980,10 +7005,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>621</v>
@@ -6997,7 +7022,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7006,13 +7031,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7046,8 +7071,8 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7101,14 +7126,14 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
     </row>
     <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
@@ -7205,13 +7230,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>738</v>
       </c>
-      <c r="C4" s="38" t="s">
-        <v>739</v>
-      </c>
       <c r="D4" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E4" s="38" t="s">
         <v>68</v>
@@ -7224,16 +7249,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>776</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>777</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7241,16 +7266,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7258,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>650</v>
@@ -7286,7 +7311,7 @@
         <v>619</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7311,7 +7336,7 @@
         <v>619</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>659</v>
+        <v>815</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7334,7 +7359,7 @@
         <v>619</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I10" s="31"/>
     </row>
@@ -7343,7 +7368,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>657</v>
@@ -7361,7 +7386,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E12" s="31" t="s">
         <v>658</v>
@@ -7379,13 +7404,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7393,12 +7418,12 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>198</v>
@@ -7407,26 +7432,29 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="H14" s="30">
-        <v>12717</v>
+        <v>771</v>
+      </c>
+      <c r="H14" s="43">
+        <v>104666</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="30" customFormat="1">
+      <c r="A15" s="45"/>
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="E15" s="30" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="45" t="s">
+        <v>664</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="30">
+      <c r="G15" s="45"/>
+      <c r="H15" s="45">
         <v>2</v>
       </c>
     </row>
@@ -7444,27 +7472,29 @@
         <v>65</v>
       </c>
       <c r="H16" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="30" customFormat="1">
+      <c r="A17" s="45"/>
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="30" t="s">
-        <v>773</v>
-      </c>
-      <c r="H17" s="30">
-        <v>10</v>
+      <c r="G17" s="45" t="s">
+        <v>772</v>
+      </c>
+      <c r="H17" s="45">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="30" customFormat="1">
@@ -7472,10 +7502,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>745</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>746</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>747</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7489,10 +7519,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>747</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>748</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>749</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7506,10 +7536,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>749</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>750</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>751</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7523,10 +7553,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>752</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>753</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7540,10 +7570,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>754</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>755</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7557,10 +7587,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>756</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>757</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7574,10 +7604,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>757</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>758</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>759</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7591,10 +7621,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>759</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>760</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>761</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7608,10 +7638,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>763</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7625,10 +7655,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>764</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>765</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7642,10 +7672,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>765</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>766</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>767</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7659,10 +7689,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>768</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>769</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7676,10 +7706,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>770</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>771</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7693,13 +7723,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C31" s="38" t="s">
         <v>667</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>668</v>
-      </c>
       <c r="D31" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>68</v>
@@ -7712,10 +7742,10 @@
         <v>21</v>
       </c>
       <c r="D32" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E32" s="31" t="s">
         <v>679</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>680</v>
       </c>
       <c r="F32" s="31" t="s">
         <v>620</v>
@@ -7728,13 +7758,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>810</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>811</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>812</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7745,10 +7775,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>779</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>780</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>781</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7762,10 +7792,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>782</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>783</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>64</v>
@@ -7779,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -7798,7 +7828,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
@@ -7807,7 +7837,7 @@
         <v>620</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
@@ -7819,7 +7849,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C38" s="38" t="s">
         <v>76</v>
@@ -7838,7 +7868,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E39" s="31" t="s">
         <v>77</v>
@@ -7863,7 +7893,7 @@
         <v>21</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E40" s="31" t="s">
         <v>79</v>
@@ -7872,7 +7902,7 @@
         <v>620</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H40" s="31">
         <v>30</v>
@@ -7891,7 +7921,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E41" s="31" t="s">
         <v>81</v>
@@ -7900,10 +7930,10 @@
         <v>619</v>
       </c>
       <c r="G41" s="31" t="s">
+        <v>669</v>
+      </c>
+      <c r="H41" s="31" t="s">
         <v>670</v>
-      </c>
-      <c r="H41" s="31" t="s">
-        <v>671</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -7917,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C42" s="38" t="s">
         <v>76</v>
@@ -7936,7 +7966,7 @@
         <v>21</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E43" s="31" t="s">
         <v>77</v>
@@ -7961,7 +7991,7 @@
         <v>21</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E44" s="31" t="s">
         <v>79</v>
@@ -7970,7 +8000,7 @@
         <v>620</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H44" s="31">
         <v>30</v>
@@ -7989,7 +8019,7 @@
         <v>21</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E45" s="31" t="s">
         <v>81</v>
@@ -7998,7 +8028,7 @@
         <v>619</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H45" s="31" t="s">
         <v>82</v>
@@ -8015,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>76</v>
@@ -8034,7 +8064,7 @@
         <v>21</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E47" s="31" t="s">
         <v>77</v>
@@ -8059,7 +8089,7 @@
         <v>21</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E48" s="31" t="s">
         <v>79</v>
@@ -8068,7 +8098,7 @@
         <v>620</v>
       </c>
       <c r="G48" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H48" s="31">
         <v>30</v>
@@ -8087,7 +8117,7 @@
         <v>21</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>81</v>
@@ -8096,10 +8126,10 @@
         <v>619</v>
       </c>
       <c r="G49" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H49" s="31" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -8113,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>76</v>
@@ -8132,7 +8162,7 @@
         <v>21</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E51" s="31" t="s">
         <v>77</v>
@@ -8157,7 +8187,7 @@
         <v>21</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E52" s="31" t="s">
         <v>79</v>
@@ -8166,7 +8196,7 @@
         <v>620</v>
       </c>
       <c r="G52" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H52" s="31">
         <v>30</v>
@@ -8185,7 +8215,7 @@
         <v>21</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E53" s="31" t="s">
         <v>81</v>
@@ -8194,10 +8224,10 @@
         <v>619</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -8211,13 +8241,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D54" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E54" s="38" t="s">
         <v>68</v>
@@ -8230,16 +8260,16 @@
         <v>21</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F55" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I55" s="31"/>
     </row>
@@ -8248,16 +8278,16 @@
         <v>21</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F56" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I56" s="31"/>
     </row>
@@ -8266,16 +8296,16 @@
         <v>21</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F57" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H57" s="41" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -8284,16 +8314,16 @@
         <v>21</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F58" s="31" t="s">
         <v>619</v>
       </c>
       <c r="H58" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I58" s="31"/>
     </row>
@@ -8302,13 +8332,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E59" s="38" t="s">
         <v>233</v>
@@ -9218,14 +9248,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="30" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>64</v>
@@ -9246,14 +9276,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>64</v>
@@ -9274,14 +9304,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>64</v>
@@ -9302,14 +9332,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="30" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>64</v>
@@ -9330,14 +9360,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="30" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>64</v>
@@ -9358,14 +9388,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="30" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>64</v>
@@ -9386,14 +9416,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="30" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E14" s="30" t="s">
         <v>64</v>
@@ -9414,14 +9444,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="30" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E15" s="30" t="s">
         <v>64</v>
@@ -9442,14 +9472,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="30" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E16" s="30" t="s">
         <v>64</v>
@@ -9470,14 +9500,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="30" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E17" s="30" t="s">
         <v>64</v>
@@ -9498,14 +9528,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="30" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E18" s="30" t="s">
         <v>64</v>
@@ -9526,14 +9556,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="30" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E19" s="30" t="s">
         <v>64</v>
@@ -9554,14 +9584,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="30" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E20" s="30" t="s">
         <v>64</v>
@@ -9582,14 +9612,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="30" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E21" s="30" t="s">
         <v>64</v>
@@ -9610,14 +9640,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="30" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>64</v>
@@ -9638,14 +9668,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="30" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>64</v>
@@ -9666,14 +9696,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="30" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>64</v>
@@ -9694,14 +9724,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="30" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>64</v>
@@ -9722,14 +9752,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E26" s="30" t="s">
         <v>64</v>
@@ -9750,14 +9780,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="30" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>64</v>
@@ -9778,14 +9808,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="30" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E28" s="30" t="s">
         <v>64</v>
@@ -9806,14 +9836,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="30" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>64</v>
@@ -9834,14 +9864,14 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="30" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>64</v>
@@ -18525,7 +18555,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>

--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22840" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2260,9 +2260,6 @@
     <t>ChangeBuildingLocation</t>
   </si>
   <si>
-    <t>USA_MA_Boston-Logan.Intl.AP.725090_TMY3.epw</t>
-  </si>
-  <si>
     <t>weather_file_name</t>
   </si>
   <si>
@@ -2489,6 +2486,9 @@
   </si>
   <si>
     <t>DOE Ref 1980-2004</t>
+  </si>
+  <si>
+    <t>SPtMasterTable_15084_2013_amy.epw</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +2498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4515,10 +4515,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1749" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1792">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
@@ -6617,17 +6617,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="81.83203125" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28">
+    <row r="1" spans="1:1" ht="45">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28">
+    <row r="2" spans="1:1" ht="30">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6651,14 +6651,14 @@
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6690,7 +6690,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="42">
+    <row r="5" spans="1:5" ht="75">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46" customHeight="1">
+    <row r="6" spans="1:5" ht="45.95" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6799,10 +6799,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6810,10 +6810,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6827,7 +6827,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -6885,7 +6885,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -6962,12 +6962,12 @@
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -6983,7 +6983,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7014,7 +7014,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7022,7 +7022,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7037,7 +7037,7 @@
         <v>704</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7072,35 +7072,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.5" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.5" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18">
+    <row r="1" spans="1:25" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7126,16 +7126,16 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7151,7 +7151,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7249,16 +7249,16 @@
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
+        <v>774</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>775</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>776</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7266,16 +7266,16 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>739</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="38" customFormat="1">
@@ -7311,7 +7311,7 @@
         <v>619</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7336,7 +7336,7 @@
         <v>619</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7404,13 +7404,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E13" s="38" t="s">
         <v>68</v>
@@ -7418,7 +7418,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="18">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7432,29 +7432,29 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H14" s="43">
         <v>104666</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="30" customFormat="1">
-      <c r="A15" s="45"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44" t="s">
         <v>664</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45">
+      <c r="G15" s="44"/>
+      <c r="H15" s="44">
         <v>2</v>
       </c>
     </row>
@@ -7476,24 +7476,24 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="30" customFormat="1">
-      <c r="A17" s="45"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44" t="s">
         <v>665</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="45" t="s">
-        <v>772</v>
-      </c>
-      <c r="H17" s="45">
+      <c r="G17" s="44" t="s">
+        <v>771</v>
+      </c>
+      <c r="H17" s="44">
         <v>12</v>
       </c>
     </row>
@@ -7502,10 +7502,10 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
+        <v>744</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>745</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>746</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
@@ -7519,10 +7519,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>747</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>748</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
@@ -7536,10 +7536,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E20" s="30" t="s">
         <v>749</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>750</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
@@ -7553,10 +7553,10 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>751</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>752</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
@@ -7570,10 +7570,10 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="E22" s="30" t="s">
         <v>753</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>754</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
@@ -7587,10 +7587,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="E23" s="30" t="s">
         <v>755</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>756</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
@@ -7604,10 +7604,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="E24" s="30" t="s">
         <v>757</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>758</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
@@ -7621,10 +7621,10 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
+        <v>758</v>
+      </c>
+      <c r="E25" s="30" t="s">
         <v>759</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>760</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
@@ -7638,10 +7638,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="E26" s="30" t="s">
         <v>761</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>762</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
@@ -7655,10 +7655,10 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>762</v>
+      </c>
+      <c r="E27" s="30" t="s">
         <v>763</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>764</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
@@ -7672,10 +7672,10 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>764</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>765</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>766</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
@@ -7689,10 +7689,10 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="E29" s="30" t="s">
         <v>767</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>768</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
@@ -7706,10 +7706,10 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
+        <v>768</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>769</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>770</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
@@ -7758,13 +7758,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="38" t="s">
+        <v>809</v>
+      </c>
+      <c r="C33" s="38" t="s">
         <v>810</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>811</v>
-      </c>
       <c r="D33" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>68</v>
@@ -7775,10 +7775,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="E34" s="30" t="s">
         <v>779</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>780</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -7792,10 +7792,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>780</v>
+      </c>
+      <c r="E35" s="30" t="s">
         <v>781</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>782</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>64</v>
@@ -7809,7 +7809,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C36" s="38" t="s">
         <v>74</v>
@@ -7828,7 +7828,7 @@
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
@@ -7837,7 +7837,7 @@
         <v>620</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
@@ -9030,20 +9030,20 @@
       <selection pane="bottomLeft" activeCell="A30" sqref="A4:XFD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18">
+    <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -9058,7 +9058,7 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
       <c r="A2" s="8" t="s">
         <v>459</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
       <c r="A3" s="14" t="s">
         <v>630</v>
       </c>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>712</v>
@@ -9280,7 +9280,7 @@
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>714</v>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>712</v>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>712</v>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B12" s="30"/>
       <c r="C12" s="30" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>712</v>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>712</v>
@@ -9420,7 +9420,7 @@
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="30" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D14" s="30" t="s">
         <v>712</v>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="30" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>712</v>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>712</v>
@@ -9504,7 +9504,7 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>712</v>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D18" s="30" t="s">
         <v>712</v>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D19" s="30" t="s">
         <v>712</v>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D20" s="30" t="s">
         <v>712</v>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D21" s="30" t="s">
         <v>728</v>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D22" s="30" t="s">
         <v>728</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D23" s="30" t="s">
         <v>728</v>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D24" s="30" t="s">
         <v>728</v>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>728</v>
@@ -9756,7 +9756,7 @@
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>728</v>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>728</v>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>728</v>
@@ -9840,7 +9840,7 @@
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>728</v>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>728</v>
@@ -9957,19 +9957,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -9988,7 +9988,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -10009,7 +10009,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -10055,7 +10055,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -10078,7 +10078,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -10212,7 +10212,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -10233,7 +10233,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -10256,7 +10256,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -10279,7 +10279,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -10302,7 +10302,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15">
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -10436,7 +10436,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -10459,7 +10459,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -10482,7 +10482,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15">
+    <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15">
+    <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15">
+    <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15">
+    <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15">
+    <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15">
+    <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15">
+    <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15">
+    <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -10662,7 +10662,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15">
+    <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -10683,7 +10683,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15">
+    <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -10706,7 +10706,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15">
+    <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15">
+    <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -10752,7 +10752,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15">
+    <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15">
+    <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15">
+    <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -10844,7 +10844,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15">
+    <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15">
+    <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -10886,7 +10886,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15">
+    <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -10907,7 +10907,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15">
+    <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15">
+    <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15">
+    <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -10976,7 +10976,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15">
+    <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -10999,7 +10999,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15">
+    <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11022,7 +11022,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11045,7 +11045,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15">
+    <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15">
+    <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15">
+    <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11110,7 +11110,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15">
+    <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11131,7 +11131,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15">
+    <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15">
+    <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15">
+    <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15">
+    <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11223,7 +11223,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15">
+    <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11246,7 +11246,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15">
+    <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15">
+    <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11292,7 +11292,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15">
+    <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11315,7 +11315,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15">
+    <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11334,7 +11334,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15">
+    <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -11355,7 +11355,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15">
+    <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -11380,7 +11380,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15">
+    <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -11426,7 +11426,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -11472,7 +11472,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -11495,7 +11495,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -11518,7 +11518,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -11564,7 +11564,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -11604,7 +11604,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15">
+    <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -11652,7 +11652,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15">
+    <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -11675,7 +11675,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15">
+    <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -11698,7 +11698,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15">
+    <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15">
+    <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -11744,7 +11744,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15">
+    <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15">
+    <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -11790,7 +11790,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15">
+    <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -11813,7 +11813,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15">
+    <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15">
+    <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -11859,7 +11859,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15">
+    <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15">
+    <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -11901,7 +11901,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15">
+    <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15">
+    <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15">
+    <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15">
+    <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15">
+    <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15">
+    <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15">
+    <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15">
+    <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15">
+    <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15">
+    <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12175,7 +12175,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15">
+    <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15">
+    <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12215,7 +12215,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12240,7 +12240,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15">
+    <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12259,7 +12259,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15">
+    <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12282,7 +12282,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15">
+    <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12307,7 +12307,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15">
+    <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12330,7 +12330,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15">
+    <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -12351,7 +12351,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15">
+    <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15">
+    <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -12395,7 +12395,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15">
+    <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -12418,7 +12418,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15">
+    <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15">
+    <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -12464,7 +12464,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15">
+    <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -12487,7 +12487,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15">
+    <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -12510,7 +12510,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15">
+    <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15">
+    <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -12552,7 +12552,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15">
+    <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15">
+    <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15">
+    <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15">
+    <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -12640,7 +12640,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15">
+    <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -12663,7 +12663,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15">
+    <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -12686,7 +12686,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15">
+    <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15">
+    <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15">
+    <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15">
+    <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -12778,7 +12778,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15">
+    <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -12797,7 +12797,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15">
+    <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -12822,7 +12822,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15">
+    <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15">
+    <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13025,7 +13025,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13050,7 +13050,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13071,7 +13071,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15">
+    <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13163,7 +13163,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15">
+    <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13209,7 +13209,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15">
+    <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13232,7 +13232,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15">
+    <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13255,7 +13255,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15">
+    <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13278,7 +13278,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15">
+    <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15">
+    <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15">
+    <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -13347,7 +13347,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -13366,7 +13366,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15">
+    <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15">
+    <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -13408,7 +13408,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15">
+    <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15">
+    <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -13473,7 +13473,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -13498,7 +13498,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15">
+    <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -13521,7 +13521,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15">
+    <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -13544,7 +13544,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15">
+    <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -13567,7 +13567,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15">
+    <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -13590,7 +13590,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15">
+    <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15">
+    <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -13682,7 +13682,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -13705,7 +13705,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -13724,7 +13724,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -13749,7 +13749,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -13772,7 +13772,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -13818,7 +13818,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -13841,7 +13841,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -13864,7 +13864,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -13887,7 +13887,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="15.75">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -13975,7 +13975,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15">
+    <row r="180" spans="1:9" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15">
+    <row r="181" spans="1:9" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14044,7 +14044,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15">
+    <row r="182" spans="1:9" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14067,7 +14067,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="15.75">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14086,7 +14086,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="15.75">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="15.75">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="15.75">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="15.75">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14178,7 +14178,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="15.75">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14197,7 +14197,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="15.75">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14218,7 +14218,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="15.75">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15">
+    <row r="191" spans="1:9" ht="15.75">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14260,7 +14260,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15">
+    <row r="192" spans="1:9" ht="15.75">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15.75">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14308,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15.75">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14329,7 +14329,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15.75">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -14354,7 +14354,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="15.75">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -14379,7 +14379,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="15.75">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -14398,7 +14398,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="15.75">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -14423,7 +14423,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15">
+    <row r="199" spans="1:9" ht="15.75">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="15.75">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -14469,7 +14469,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="15.75">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -14492,7 +14492,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="15.75">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="15.75">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -14538,7 +14538,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="15.75">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -14561,7 +14561,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="15.75">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15">
+    <row r="206" spans="1:9" ht="15.75">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -14607,7 +14607,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15">
+    <row r="207" spans="1:9" ht="15.75">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -14626,7 +14626,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15">
+    <row r="208" spans="1:9" ht="15.75">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -14651,7 +14651,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15">
+    <row r="209" spans="1:9" ht="15.75">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15">
+    <row r="210" spans="1:9" ht="15.75">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15">
+    <row r="211" spans="1:9" ht="15.75">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15">
+    <row r="212" spans="1:9" ht="15.75">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -14743,7 +14743,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15">
+    <row r="213" spans="1:9" ht="15.75">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -14766,7 +14766,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15">
+    <row r="214" spans="1:9" ht="15.75">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15">
+    <row r="215" spans="1:9" ht="15.75">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -14812,7 +14812,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15">
+    <row r="216" spans="1:9" ht="15.75">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -14835,7 +14835,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15">
+    <row r="217" spans="1:9" ht="15.75">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -14854,7 +14854,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15">
+    <row r="218" spans="1:9" ht="15.75">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -14875,7 +14875,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15">
+    <row r="219" spans="1:9" ht="15.75">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15">
+    <row r="220" spans="1:9" ht="15.75">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15">
+    <row r="221" spans="1:9" ht="15.75">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -14944,7 +14944,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15">
+    <row r="222" spans="1:9" ht="15.75">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15">
+    <row r="223" spans="1:9" ht="15.75">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -14990,7 +14990,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15">
+    <row r="224" spans="1:9" ht="15.75">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15013,7 +15013,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15">
+    <row r="225" spans="1:9" ht="15.75">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15">
+    <row r="226" spans="1:9" ht="15.75">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15059,7 +15059,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15">
+    <row r="227" spans="1:9" ht="15.75">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15082,7 +15082,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15">
+    <row r="228" spans="1:9" ht="15.75">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15105,7 +15105,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15">
+    <row r="229" spans="1:9" ht="15.75">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15128,7 +15128,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15">
+    <row r="230" spans="1:9" ht="15.75">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15151,7 +15151,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15">
+    <row r="231" spans="1:9" ht="15.75">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15174,7 +15174,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15">
+    <row r="232" spans="1:9" ht="15.75">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15">
+    <row r="233" spans="1:9" ht="15.75">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15220,7 +15220,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15">
+    <row r="234" spans="1:9" ht="15.75">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15239,7 +15239,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15">
+    <row r="235" spans="1:9" ht="15.75">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15260,7 +15260,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15.75">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15.75">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15">
+    <row r="238" spans="1:9" ht="15.75">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15">
+    <row r="239" spans="1:9" ht="15.75">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -15352,7 +15352,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15">
+    <row r="240" spans="1:9" ht="15.75">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15">
+    <row r="241" spans="1:9" ht="15.75">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -15398,7 +15398,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15">
+    <row r="242" spans="1:9" ht="15.75">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15">
+    <row r="243" spans="1:9" ht="15.75">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -15444,7 +15444,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15">
+    <row r="244" spans="1:9" ht="15.75">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -15467,7 +15467,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15">
+    <row r="245" spans="1:9" ht="15.75">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -15490,7 +15490,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15">
+    <row r="246" spans="1:9" ht="15.75">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15">
+    <row r="247" spans="1:9" ht="15.75">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -15536,7 +15536,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15">
+    <row r="248" spans="1:9" ht="15.75">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -15559,7 +15559,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15">
+    <row r="249" spans="1:9" ht="15.75">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15">
+    <row r="250" spans="1:9" ht="15.75">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15">
+    <row r="251" spans="1:9" ht="15.75">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -15624,7 +15624,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15">
+    <row r="252" spans="1:9" ht="15.75">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -15649,7 +15649,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15">
+    <row r="253" spans="1:9" ht="15.75">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -15672,7 +15672,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15">
+    <row r="254" spans="1:9" ht="15.75">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15">
+    <row r="255" spans="1:9" ht="15.75">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -15718,7 +15718,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15">
+    <row r="256" spans="1:9" ht="15.75">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15">
+    <row r="257" spans="1:9" ht="15.75">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -15760,7 +15760,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15">
+    <row r="258" spans="1:9" ht="15.75">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -15785,7 +15785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15">
+    <row r="259" spans="1:9" ht="15.75">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15">
+    <row r="260" spans="1:9" ht="15.75">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -15827,7 +15827,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15">
+    <row r="261" spans="1:9" ht="15.75">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -15846,7 +15846,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15">
+    <row r="262" spans="1:9" ht="15.75">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -15865,7 +15865,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15">
+    <row r="263" spans="1:9" ht="15.75">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -15886,7 +15886,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15">
+    <row r="264" spans="1:9" ht="15.75">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -15909,7 +15909,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15">
+    <row r="265" spans="1:9" ht="15.75">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -15932,7 +15932,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15">
+    <row r="266" spans="1:9" ht="15.75">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -15955,7 +15955,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15">
+    <row r="267" spans="1:9" ht="15.75">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15">
+    <row r="268" spans="1:9" ht="15.75">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15">
+    <row r="269" spans="1:9" ht="15.75">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15">
+    <row r="270" spans="1:9" ht="15.75">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15">
+    <row r="271" spans="1:9" ht="15.75">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16070,7 +16070,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15">
+    <row r="272" spans="1:9" ht="15.75">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15">
+    <row r="273" spans="1:9" ht="15.75">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16116,7 +16116,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15">
+    <row r="274" spans="1:9" ht="15.75">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16135,7 +16135,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15">
+    <row r="275" spans="1:9" ht="15.75">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15">
+    <row r="276" spans="1:9" ht="15.75">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16177,7 +16177,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15">
+    <row r="277" spans="1:9" ht="15.75">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16202,7 +16202,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15">
+    <row r="278" spans="1:9" ht="15.75">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15">
+    <row r="279" spans="1:9" ht="15.75">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16248,7 +16248,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15">
+    <row r="280" spans="1:9" ht="15.75">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15">
+    <row r="281" spans="1:9" ht="15.75">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16294,7 +16294,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15">
+    <row r="282" spans="1:9" ht="15.75">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16317,7 +16317,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15">
+    <row r="283" spans="1:9" ht="15.75">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16340,7 +16340,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15">
+    <row r="284" spans="1:9" ht="15.75">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -16363,7 +16363,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15">
+    <row r="285" spans="1:9" ht="15.75">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -16386,7 +16386,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15">
+    <row r="286" spans="1:9" ht="15.75">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15">
+    <row r="287" spans="1:9" ht="15.75">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -16432,7 +16432,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15">
+    <row r="288" spans="1:9" ht="15.75">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -16451,7 +16451,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15">
+    <row r="289" spans="1:9" ht="15.75">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -16474,7 +16474,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15">
+    <row r="290" spans="1:9" ht="15.75">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -16493,7 +16493,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15">
+    <row r="291" spans="1:9" ht="15.75">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -16514,7 +16514,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15">
+    <row r="292" spans="1:9" ht="15.75">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -16533,7 +16533,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15">
+    <row r="293" spans="1:9" ht="15.75">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -16554,7 +16554,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -16573,7 +16573,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -16594,7 +16594,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -16613,7 +16613,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -16636,7 +16636,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -16655,7 +16655,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15">
+    <row r="299" spans="1:9" ht="15.75">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -16680,7 +16680,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15">
+    <row r="300" spans="1:9" ht="15.75">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -16703,7 +16703,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15">
+    <row r="301" spans="1:9" ht="15.75">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15">
+    <row r="302" spans="1:9" ht="15.75">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -16749,7 +16749,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15">
+    <row r="303" spans="1:9" ht="15.75">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15">
+    <row r="304" spans="1:9" ht="15.75">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15">
+    <row r="305" spans="1:9" ht="15.75">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -16818,7 +16818,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15">
+    <row r="306" spans="1:9" ht="15.75">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15">
+    <row r="307" spans="1:9" ht="15.75">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -16864,7 +16864,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15">
+    <row r="308" spans="1:9" ht="15.75">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -16883,7 +16883,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15">
+    <row r="309" spans="1:9" ht="15.75">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -16906,7 +16906,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15">
+    <row r="310" spans="1:9" ht="15.75">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15">
+    <row r="311" spans="1:9" ht="15.75">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -16952,7 +16952,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15">
+    <row r="312" spans="1:9" ht="15.75">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -16975,7 +16975,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15">
+    <row r="313" spans="1:9" ht="15.75">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -16994,7 +16994,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15">
+    <row r="314" spans="1:9" ht="15.75">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17017,7 +17017,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15">
+    <row r="315" spans="1:9" ht="15.75">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17040,7 +17040,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15">
+    <row r="316" spans="1:9" ht="15.75">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17065,7 +17065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15">
+    <row r="317" spans="1:9" ht="15.75">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17084,7 +17084,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15">
+    <row r="318" spans="1:9" ht="15.75">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17109,7 +17109,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15">
+    <row r="319" spans="1:9" ht="15.75">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15">
+    <row r="320" spans="1:9" ht="15.75">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17151,7 +17151,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15">
+    <row r="321" spans="1:9" ht="15.75">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17172,7 +17172,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15">
+    <row r="322" spans="1:9" ht="15.75">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17193,7 +17193,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15">
+    <row r="323" spans="1:9" ht="15.75">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17216,7 +17216,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15">
+    <row r="324" spans="1:9" ht="15.75">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17235,7 +17235,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15">
+    <row r="325" spans="1:9" ht="15.75">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17254,7 +17254,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15">
+    <row r="326" spans="1:9" ht="15.75">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17279,7 +17279,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15">
+    <row r="327" spans="1:9" ht="15.75">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17636,7 +17636,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15.75">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -17999,7 +17999,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18127,14 +18127,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_model0.xlsx
+++ b/projects/office_model0.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$Z$150</definedName>
     <definedName name="AnalysisType">Lookups!$A$17:$A$23</definedName>
     <definedName name="instance_defs">Lookups!$A$2:$D$9</definedName>
     <definedName name="instance_types">Lookups!$A$2:$A$9</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="824">
   <si>
     <t>type</t>
   </si>
@@ -2489,6 +2489,30 @@
   </si>
   <si>
     <t>SPtMasterTable_15084_2013_amy.epw</t>
+  </si>
+  <si>
+    <t>AddServiceWaterHeating</t>
+  </si>
+  <si>
+    <t>Add Service Water Heating</t>
+  </si>
+  <si>
+    <t>water_heater_fuel_type</t>
+  </si>
+  <si>
+    <t>hot_water_per_occ_per_day_gal</t>
+  </si>
+  <si>
+    <t>NaturalGas</t>
+  </si>
+  <si>
+    <t>Water Heater Fuel Type</t>
+  </si>
+  <si>
+    <t>Gallons Hot Water per Occupant per Day</t>
+  </si>
+  <si>
+    <t>gal</t>
   </si>
 </sst>
 </file>
@@ -7068,11 +7092,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y224"/>
+  <dimension ref="A1:Y223"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8332,31 +8356,77 @@
         <v>1</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>709</v>
+        <v>817</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>708</v>
+        <v>816</v>
       </c>
       <c r="D59" s="38" t="s">
-        <v>708</v>
+        <v>816</v>
       </c>
       <c r="E59" s="38" t="s">
-        <v>233</v>
+        <v>68</v>
       </c>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="H60" s="31"/>
+      <c r="B60" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="E60" s="31" t="s">
+        <v>818</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="H60" s="31" t="s">
+        <v>820</v>
+      </c>
       <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="H61" s="31"/>
+      <c r="B61" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>822</v>
+      </c>
+      <c r="E61" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>620</v>
+      </c>
+      <c r="G61" s="31" t="s">
+        <v>823</v>
+      </c>
+      <c r="H61" s="31">
+        <v>1</v>
+      </c>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:17">
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
+    <row r="62" spans="1:17" s="38" customFormat="1">
+      <c r="A62" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:17">
       <c r="H63" s="31"/>
@@ -9002,12 +9072,8 @@
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
-    <row r="224" spans="8:9">
-      <c r="H224" s="31"/>
-      <c r="I224" s="31"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:Z151"/>
+  <autoFilter ref="A2:Z150"/>
   <mergeCells count="1">
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
